--- a/medicine/Pharmacie/1786_en_santé_et_médecine/1786_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1786_en_santé_et_médecine/1786_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1786_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1786_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1786 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1786_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1786_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Joseph Jacob von Plenck (1738-1807) : Pharmacologie chirurgicale, ou, science des médicaments externes et internes, requis pour guérir les maladies chirurgicales : suivie d'un traité de pharmacie relatif à la préparation et à la composition des médicaments.
 Félix Vicq d'Azyr (1748-1794) : Traité d'anatomie et de physiologie, avec des planches coloriées représentant au naturel les divers organes de l'homme et des animaux, Paris, de l'imprimerie de Franç. Amb. Didot l'aîné, 1786, 1re éd., 111 p. (lire en ligne sur Gallica).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1786_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1786_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>25 mars : Angiolo Nespoli (it) (mort en 1839), médecin italien.
 16 avril : Thomas Sewall (en) (mort en 1845), médecin américain.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1786_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1786_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>5 janvier : François Bonamy (né en 1710), médecin et botaniste français.
 5 octobre : Johann Gottlieb Gleditsch (né en 1714), médecin et naturaliste allemand.
-18 octobre : Alexander Wilson (né en 1714), chirurgien, mathématicien et météorologue écossais[1].
+18 octobre : Alexander Wilson (né en 1714), chirurgien, mathématicien et météorologue écossais.
 10 novembre :  John Hope (né en 1725), médecin et botaniste écossais.
 17 novembre : John Eliot (né en 1736), médecin écossais.
 28 décembre : Giovanni Della Bona (it) (né en 1712), médecin italien.</t>
